--- a/DbLayouts/L6-共同作業/AcDetail.xlsx
+++ b/DbLayouts/L6-共同作業/AcDetail.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -198,10 +198,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CustNo</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>FacmNo</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -594,10 +590,6 @@
   <si>
     <t>TitaTxCd</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcDate = ,AND RvNo = ,AND TitaTxCd =</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>RelDy</t>
@@ -976,6 +968,14 @@
   </si>
   <si>
     <t xml:space="preserve">AcBookCode = ,AND AcSubBookCode % ,AND BranchNo = ,AND CurrencyCode = ,AND AcDate = ,AND AcNoCode &gt;= ,AND AcNoCode &lt;= ,AND TitaSecNo &gt;= ,AND TitaSecNo &lt;= </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcctCode = ,AND CustNo = ,AND RvNo = ,</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1659,8 +1659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.88671875" defaultRowHeight="16.2"/>
@@ -1680,10 +1680,10 @@
       </c>
       <c r="B1" s="55"/>
       <c r="C1" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="10"/>
@@ -1708,7 +1708,7 @@
       </c>
       <c r="B3" s="57"/>
       <c r="C3" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>13</v>
@@ -1734,7 +1734,7 @@
       </c>
       <c r="B5" s="57"/>
       <c r="C5" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="14"/>
@@ -1756,11 +1756,11 @@
     </row>
     <row r="7" spans="1:7" ht="81">
       <c r="A7" s="54" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B7" s="56"/>
       <c r="C7" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="14"/>
@@ -1769,11 +1769,11 @@
     </row>
     <row r="8" spans="1:7" ht="48.6">
       <c r="A8" s="54" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B8" s="56"/>
       <c r="C8" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="14"/>
@@ -1808,13 +1808,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="E10" s="20">
         <v>8</v>
@@ -1827,10 +1827,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" s="40" t="s">
         <v>11</v>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1848,10 +1848,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>14</v>
@@ -1867,13 +1867,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" s="20">
         <v>8</v>
@@ -1889,7 +1889,7 @@
         <v>44</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D14" s="40" t="s">
         <v>11</v>
@@ -1905,7 +1905,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>12</v>
@@ -1924,10 +1924,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D16" s="40" t="s">
         <v>11</v>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="36" customFormat="1">
@@ -1945,20 +1945,20 @@
         <v>8</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="41" t="s">
         <v>79</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>80</v>
       </c>
       <c r="E17" s="32">
         <v>5</v>
       </c>
       <c r="F17" s="35"/>
       <c r="G17" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1966,10 +1966,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="40" t="s">
         <v>11</v>
@@ -1979,7 +1979,7 @@
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="36" customFormat="1">
@@ -1987,20 +1987,20 @@
         <v>10</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D19" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E19" s="34">
         <v>3</v>
       </c>
       <c r="F19" s="35"/>
       <c r="G19" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2008,7 +2008,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>30</v>
@@ -2020,7 +2020,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2031,7 +2031,7 @@
         <v>37</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>14</v>
@@ -2048,7 +2048,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C22" s="28" t="s">
         <v>36</v>
@@ -2060,7 +2060,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2068,7 +2068,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>46</v>
+        <v>227</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>15</v>
@@ -2087,7 +2087,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>16</v>
@@ -2106,7 +2106,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>31</v>
@@ -2123,7 +2123,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C26" s="21" t="s">
         <v>17</v>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="F26" s="21"/>
       <c r="G26" s="24" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="36" customFormat="1" ht="32.4">
@@ -2144,20 +2144,20 @@
         <v>18</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E27" s="34">
         <v>1</v>
       </c>
       <c r="F27" s="35"/>
       <c r="G27" s="37" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="36" customFormat="1" ht="81">
@@ -2165,20 +2165,20 @@
         <v>19</v>
       </c>
       <c r="B28" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="33" t="s">
-        <v>64</v>
-      </c>
       <c r="D28" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E28" s="34">
         <v>1</v>
       </c>
       <c r="F28" s="35"/>
       <c r="G28" s="38" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="36" customFormat="1" ht="113.4">
@@ -2186,10 +2186,10 @@
         <v>20</v>
       </c>
       <c r="B29" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="33" t="s">
         <v>88</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>89</v>
       </c>
       <c r="D29" s="42" t="s">
         <v>26</v>
@@ -2199,7 +2199,7 @@
       </c>
       <c r="F29" s="35"/>
       <c r="G29" s="38" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="32.4">
@@ -2207,22 +2207,22 @@
         <v>21</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E30" s="31">
         <v>3</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="64.8">
@@ -2230,20 +2230,20 @@
         <v>22</v>
       </c>
       <c r="B31" s="53" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C31" s="49" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D31" s="49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E31" s="50">
         <v>3</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="52" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="372.6">
@@ -2251,19 +2251,19 @@
         <v>23</v>
       </c>
       <c r="B32" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="21" t="s">
-        <v>57</v>
-      </c>
       <c r="D32" s="40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E32" s="29">
         <v>3</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2271,10 +2271,10 @@
         <v>24</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D33" s="40" t="s">
         <v>11</v>
@@ -2294,7 +2294,7 @@
         <v>18</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E34" s="20">
         <v>80</v>
@@ -2305,19 +2305,19 @@
         <v>26</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C35" s="21" t="s">
         <v>28</v>
       </c>
       <c r="D35" s="40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E35" s="29">
         <v>2</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2325,13 +2325,13 @@
         <v>27</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C36" s="21" t="s">
         <v>43</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E36" s="20">
         <v>6</v>
@@ -2342,10 +2342,10 @@
         <v>28</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D37" s="40" t="s">
         <v>11</v>
@@ -2361,10 +2361,10 @@
         <v>29</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D38" s="40" t="s">
         <v>11</v>
@@ -2380,10 +2380,10 @@
         <v>30</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>14</v>
@@ -2399,7 +2399,7 @@
         <v>31</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C40" s="21" t="s">
         <v>19</v>
@@ -2452,10 +2452,10 @@
         <v>34</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D43" s="40" t="s">
         <v>11</v>
@@ -2506,10 +2506,10 @@
         <v>37</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>11</v>
@@ -2523,13 +2523,13 @@
         <v>38</v>
       </c>
       <c r="B47" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="C47" s="39" t="s">
+      <c r="D47" s="39" t="s">
         <v>99</v>
-      </c>
-      <c r="D47" s="39" t="s">
-        <v>100</v>
       </c>
       <c r="E47" s="32"/>
       <c r="F47" s="35"/>
@@ -2540,10 +2540,10 @@
         <v>39</v>
       </c>
       <c r="B48" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" s="39" t="s">
         <v>101</v>
-      </c>
-      <c r="C48" s="39" t="s">
-        <v>102</v>
       </c>
       <c r="D48" s="39" t="s">
         <v>11</v>
@@ -2559,13 +2559,13 @@
         <v>40</v>
       </c>
       <c r="B49" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="C49" s="39" t="s">
-        <v>104</v>
-      </c>
       <c r="D49" s="39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E49" s="32"/>
       <c r="F49" s="35"/>
@@ -2576,10 +2576,10 @@
         <v>41</v>
       </c>
       <c r="B50" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="39" t="s">
         <v>105</v>
-      </c>
-      <c r="C50" s="39" t="s">
-        <v>106</v>
       </c>
       <c r="D50" s="39" t="s">
         <v>11</v>
@@ -2612,8 +2612,8 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2637,365 +2637,365 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="32.4">
       <c r="A3" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>134</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>149</v>
+        <v>228</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="32.4">
       <c r="A22" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="32.4">
       <c r="A23" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="32.4">
       <c r="A24" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="32.4">
       <c r="A25" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="32.4">
       <c r="A26" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="32.4">
       <c r="A27" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="32.4">
       <c r="A29" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="32.4">
       <c r="A30" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="32.4">
       <c r="A31" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="32.4">
       <c r="A32" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="32.4">
       <c r="A33" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="32.4">
       <c r="A34" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3027,12 +3027,12 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3064,10 +3064,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="45" t="s">
         <v>138</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>139</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>11</v>
@@ -3077,7 +3077,7 @@
       </c>
       <c r="G6" s="32"/>
       <c r="H6" s="37" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="46" customFormat="1" ht="64.8">
@@ -3086,20 +3086,20 @@
         <v>2</v>
       </c>
       <c r="C7" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="E7" s="41" t="s">
         <v>188</v>
-      </c>
-      <c r="D7" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>190</v>
       </c>
       <c r="F7" s="47">
         <v>1</v>
       </c>
       <c r="G7" s="45"/>
       <c r="H7" s="48" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="46" customFormat="1" ht="32.4">
@@ -3108,10 +3108,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E8" s="39" t="s">
         <v>14</v>
@@ -3123,7 +3123,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="37" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
